--- a/Data Extraction Template_Charting the results_MC  - Copy.xlsx
+++ b/Data Extraction Template_Charting the results_MC  - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{4D06362E-1746-4516-B503-D72DDFACC5DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="6_{4D06362E-1746-4516-B503-D72DDFACC5DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{343F9B0B-DB9C-48EC-BFA9-A85F6AF34F87}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="249">
   <si>
     <t>Author(s)</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Intervention Strategies</t>
-  </si>
-  <si>
-    <t>Vocational Rehabilitation for Mental Health Service Users with Chronic Mental Illness in Low to Upper-middle income countries</t>
   </si>
   <si>
     <t>Duration of intervention</t>
@@ -851,7 +848,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,27 +864,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -908,18 +891,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -930,9 +913,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1214,11 +1194,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF15"/>
+  <dimension ref="A1:AF14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD3" sqref="AD3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,1418 +1226,1379 @@
     <col min="32" max="32" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:32" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
+      <c r="AA1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="2" spans="1:32" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2016</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2" s="5">
+        <v>30</v>
+      </c>
+      <c r="M2" s="5">
+        <v>5</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="345" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
       <c r="B3" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="E3" s="5">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>69</v>
+        <v>115</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="K3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="X3" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="L3" s="5">
-        <v>30</v>
-      </c>
-      <c r="M3" s="5">
-        <v>5</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>155</v>
-      </c>
       <c r="Y3" s="6" t="s">
-        <v>70</v>
+        <v>248</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AA3" s="6" t="s">
         <v>130</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>71</v>
+        <v>247</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="345" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" s="5">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="H4" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="X4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="Y4" s="6" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="Z4" s="6" t="s">
         <v>130</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="AC4" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="210" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="300" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="5">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>117</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>85</v>
+        <v>129</v>
+      </c>
+      <c r="L5" s="5">
+        <v>550</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="N5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="R5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>87</v>
+        <v>96</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>130</v>
+        <v>98</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="300" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>63</v>
+      <c r="I6" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="L6" s="5">
-        <v>550</v>
+        <v>17</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>95</v>
+      <c r="N6" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="O6" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="P6" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="R6" s="5" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="T6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB6" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="U6" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="AC6" s="6" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="AD6" s="6" t="s">
         <v>190</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7" s="5">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" s="5">
-        <v>17</v>
+        <v>125</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="O7" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="R7" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>161</v>
+        <v>129</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="W7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="X7" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="X7" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="Y7" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="AB7" s="6" t="s">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="AC7" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD7" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AD7" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="AE7" s="6" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="AF7" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>121</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="M8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF8" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="255" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2015</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="5">
+        <v>35</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q9" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="R8" s="5" t="s">
+      <c r="R9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA9" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB9" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE9" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF9" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="5">
+        <v>180</v>
+      </c>
+      <c r="M10" s="5">
+        <v>103</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="S8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA8" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB8" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC8" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD8" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE8" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF8" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2016</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB9" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD9" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE9" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AF9" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" ht="255" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2015</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" s="5">
-        <v>35</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="R10" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>165</v>
       </c>
       <c r="X10" s="6" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="Y10" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Z10" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA10" s="6" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AE10" s="6" t="s">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="AF10" s="6" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="5">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>110</v>
+      <c r="H11" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L11" s="5">
-        <v>180</v>
-      </c>
-      <c r="M11" s="5">
-        <v>103</v>
+        <v>125</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>148</v>
+        <v>218</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="W11" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="X11" s="6" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="Y11" s="6" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Z11" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB11" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD11" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="AB11" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC11" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD11" s="6" t="s">
-        <v>209</v>
-      </c>
       <c r="AE11" s="6" t="s">
-        <v>111</v>
+        <v>212</v>
       </c>
       <c r="AF11" s="6" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>125</v>
+      <c r="H12" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="N12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB12" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE12" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="O12" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="T12" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="V12" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="W12" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="X12" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y12" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB12" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD12" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE12" s="6" t="s">
-        <v>213</v>
-      </c>
       <c r="AF12" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="5">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>127</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="N13" s="6" t="s">
-        <v>230</v>
+      <c r="N13" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="R13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE13" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF13" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="X13" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y13" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB13" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC13" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE13" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="AF13" s="6" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E14" s="5">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="H14" s="6" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>130</v>
+        <v>106</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c r="U14" s="6" t="s">
         <v>176</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AB14" s="6" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AD14" s="6" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="AE14" s="6" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="AF14" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="5">
-        <v>2015</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="T15" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="U15" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="V15" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="W15" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="X15" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y15" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z15" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA15" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AC15" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD15" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AE15" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="AF15" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:AF1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
